--- a/专家费用管理/历史数据.xlsx
+++ b/专家费用管理/历史数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,19 +24,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实发金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家费用历史数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电话号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实发金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家费用历史数据</t>
+    <t>年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,43 +153,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -217,29 +188,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,50 +553,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
